--- a/Output/Info.xlsx
+++ b/Output/Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugar\DS_consult\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugar\DS_consult_Sugarbayar_20240520\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA3FF71-920B-4A50-943E-C605D8A820AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED227CB-C654-49DD-9290-64A435AC8189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F83C0D91-A675-4E9B-8E4F-AB6979DB9E0C}"/>
+    <workbookView xWindow="6390" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{F83C0D91-A675-4E9B-8E4F-AB6979DB9E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>info1</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Quantile - Buy &amp; Sell</t>
+  </si>
+  <si>
+    <t>info10</t>
   </si>
 </sst>
 </file>
@@ -458,15 +461,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E8066B-0E31-4299-ADC8-78F98A2976EF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +508,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
